--- a/data/spreadsheets/AudioSegment.xlsx
+++ b/data/spreadsheets/AudioSegment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388C957-0AEC-CC4A-9BD4-E02D37658817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A432F-87C7-3D47-8ED2-1E51228EDDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41040" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{18A4F225-AC8C-C14A-A578-B1508D9DF6E2}"/>
+    <workbookView xWindow="8960" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{18A4F225-AC8C-C14A-A578-B1508D9DF6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>BCH_003</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Daniela Subotic, Noémi Villars-Amberg</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5392F59A-17A6-5646-82FD-B08042520B1D}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,9 +604,10 @@
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +638,11 @@
       <c r="J1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -657,8 +667,11 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -689,8 +702,11 @@
       <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -715,8 +731,11 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -744,8 +763,11 @@
       <c r="I5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -770,8 +792,11 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -802,8 +827,11 @@
       <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -828,8 +856,11 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -854,8 +885,11 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -886,8 +920,11 @@
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -911,6 +948,9 @@
       </c>
       <c r="I11" t="s">
         <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
